--- a/biology/Botanique/Genlisea/Genlisea.xlsx
+++ b/biology/Botanique/Genlisea/Genlisea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genlisea est un genre de plantes carnivores de la famille des Lentibulariaceae. Elles sont terrestres ou semi-aquatiques, vivaces ou annuelles selon les espèces, spécialisées dans la capture de protozoaires. Les pièges sont constitués de longs filaments creux et torsadés en forme de tire-bouchon dans lesquels sont aspirés les minuscules organismes souterrains ou aquatiques. Leur sortie est rendue impossible par de minuscules poils qui pointent vers le centre de la plante. Les proies sont ensuite amenées jusqu’à une cavité où elles seront digérées par des enzymes.
 En surface, seules sont visibles de très petites feuilles parfois relativement épaisses, dont la croissance semble anarchique, et de façon périodique une longue hampe florale qui porte des fleurs jaunes ou mauves semblables à celles des Utricularia.
@@ -513,9 +525,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Genlisea africana
 Genlisea angolensis
 Genlisea aurea
@@ -523,7 +537,7 @@
 Genlisea glabra
 Genlisea glandulosissima
 Genlisea guianensis
-Genlisea hispidula[3]
+Genlisea hispidula
 Genlisea luetzelburgii
 Genlisea margaretae
 Genlisea pygmaea
